--- a/NformTester/NformTester/keywordscripts/TST618_DeviceParametersOnConfigureTrendingScreen.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST618_DeviceParametersOnConfigureTrendingScreen.xlsx
@@ -3660,9 +3660,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3680,10 +3677,6 @@
     <t>;Add one device.</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -3840,6 +3833,12 @@
   <si>
     <t>"Output current"</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
   </si>
 </sst>
 </file>
@@ -4367,7 +4366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4457,7 +4458,7 @@
         <v>766</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4498,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4529,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4554,7 +4555,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4579,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4598,7 +4599,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -4617,13 +4618,13 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>779</v>
@@ -4645,7 +4646,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4710,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>798</v>
+        <v>851</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4786,7 +4787,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -4818,7 +4819,7 @@
         <v>575</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H15" s="11">
         <v>2</v>
@@ -4842,7 +4843,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>574</v>
@@ -4851,7 +4852,7 @@
         <v>575</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H16" s="11">
         <v>3</v>
@@ -4937,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
@@ -4960,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
@@ -4983,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>19</v>
@@ -5008,7 +5009,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>19</v>
@@ -5033,7 +5034,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>19</v>
@@ -5058,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>706</v>
@@ -5083,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>706</v>
@@ -5108,7 +5109,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>706</v>
@@ -5133,7 +5134,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>706</v>
@@ -5158,7 +5159,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>706</v>
@@ -5183,7 +5184,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>706</v>
@@ -5192,10 +5193,10 @@
         <v>716</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5210,7 +5211,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>706</v>
@@ -5219,10 +5220,10 @@
         <v>716</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5237,7 +5238,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>706</v>
@@ -5246,10 +5247,10 @@
         <v>716</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -5264,7 +5265,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>706</v>
@@ -5376,10 +5377,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>577</v>
@@ -5388,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5402,10 +5403,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>185</v>
@@ -5426,7 +5427,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>583</v>
@@ -5450,10 +5451,10 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>95</v>
@@ -6164,7 +6165,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
@@ -7046,7 +7047,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -7575,7 +7576,7 @@
         <v>568</v>
       </c>
       <c r="AU15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BB15" t="s">
         <v>608</v>
@@ -8107,7 +8108,7 @@
         <v>418</v>
       </c>
       <c r="AQ26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BB26" t="s">
         <v>617</v>
@@ -9029,7 +9030,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AO82" t="s">
         <v>332</v>
@@ -9037,10 +9038,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E83" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO83" t="s">
         <v>360</v>
@@ -9048,7 +9049,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E84" t="s">
         <v>102</v>
@@ -9107,7 +9108,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="E91" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO91" t="s">
         <v>478</v>
@@ -9115,7 +9116,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AO92" t="s">
         <v>479</v>
@@ -9123,7 +9124,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO93" t="s">
         <v>480</v>
@@ -9131,7 +9132,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AO94" t="s">
         <v>481</v>
@@ -9139,7 +9140,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO95" t="s">
         <v>482</v>
@@ -9147,7 +9148,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AO96" t="s">
         <v>483</v>
@@ -9155,7 +9156,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AO97" t="s">
         <v>484</v>
@@ -9163,7 +9164,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AO98" t="s">
         <v>485</v>
@@ -9171,7 +9172,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AO99" t="s">
         <v>486</v>
@@ -9187,7 +9188,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO101" t="s">
         <v>488</v>
@@ -9195,7 +9196,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO102" t="s">
         <v>382</v>
@@ -9219,7 +9220,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO105" t="s">
         <v>491</v>
@@ -9227,7 +9228,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO106" t="s">
         <v>492</v>
@@ -9235,7 +9236,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AO107" t="s">
         <v>493</v>
@@ -9243,7 +9244,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO108" t="s">
         <v>494</v>
@@ -9267,7 +9268,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO111" t="s">
         <v>497</v>
@@ -9275,7 +9276,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO112" t="s">
         <v>498</v>
@@ -9283,7 +9284,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO113" t="s">
         <v>499</v>
@@ -9291,7 +9292,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AO114" t="s">
         <v>500</v>
@@ -12864,7 +12865,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="DH2" t="s">
         <v>111</v>
@@ -15827,7 +15828,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -15950,10 +15951,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CI3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -15980,7 +15981,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -15995,10 +15996,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -16106,7 +16107,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16271,7 +16272,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -16328,7 +16329,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -16541,10 +16542,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -16751,7 +16752,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -16790,7 +16791,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -16841,10 +16842,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -16934,7 +16935,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -17105,7 +17106,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -17120,7 +17121,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -17189,7 +17190,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -17216,13 +17217,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -17384,7 +17385,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -17837,7 +17838,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -17858,10 +17859,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -17906,7 +17907,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -17948,7 +17949,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -18098,7 +18099,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -18119,7 +18120,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -18182,7 +18183,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -18194,10 +18195,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18305,7 +18306,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18317,7 +18318,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -18380,7 +18381,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -18530,7 +18531,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -18587,7 +18588,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -18641,7 +18642,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -18671,7 +18672,7 @@
         <v>112</v>
       </c>
       <c r="ALE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -18988,7 +18989,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AT4" t="s">
         <v>5</v>
@@ -19111,10 +19112,10 @@
         <v>7</v>
       </c>
       <c r="CH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CI4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CJ4" t="s">
         <v>7</v>
@@ -19141,7 +19142,7 @@
         <v>7</v>
       </c>
       <c r="CR4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CS4" t="s">
         <v>7</v>
@@ -19156,10 +19157,10 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CY4" t="s">
         <v>7</v>
@@ -19267,7 +19268,7 @@
         <v>6</v>
       </c>
       <c r="EH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="EI4" t="s">
         <v>5</v>
@@ -19432,7 +19433,7 @@
         <v>5</v>
       </c>
       <c r="GK4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="GL4" t="s">
         <v>7</v>
@@ -19489,7 +19490,7 @@
         <v>7</v>
       </c>
       <c r="HD4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="HE4" t="s">
         <v>7</v>
@@ -19702,10 +19703,10 @@
         <v>7</v>
       </c>
       <c r="JW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JX4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JY4" t="s">
         <v>5</v>
@@ -19912,7 +19913,7 @@
         <v>7</v>
       </c>
       <c r="MO4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="MP4" t="s">
         <v>5</v>
@@ -19951,7 +19952,7 @@
         <v>7</v>
       </c>
       <c r="NB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NC4" t="s">
         <v>7</v>
@@ -20002,10 +20003,10 @@
         <v>5</v>
       </c>
       <c r="NS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NU4" t="s">
         <v>5</v>
@@ -20095,7 +20096,7 @@
         <v>5</v>
       </c>
       <c r="OX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="OY4" t="s">
         <v>7</v>
@@ -20266,7 +20267,7 @@
         <v>7</v>
       </c>
       <c r="RC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="RD4" t="s">
         <v>5</v>
@@ -20281,7 +20282,7 @@
         <v>5</v>
       </c>
       <c r="RH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RI4" t="s">
         <v>7</v>
@@ -20350,7 +20351,7 @@
         <v>5</v>
       </c>
       <c r="SE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SF4" t="s">
         <v>5</v>
@@ -20377,13 +20378,13 @@
         <v>5</v>
       </c>
       <c r="SN4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SO4" t="s">
         <v>5</v>
       </c>
       <c r="SP4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SQ4" t="s">
         <v>7</v>
@@ -20545,7 +20546,7 @@
         <v>5</v>
       </c>
       <c r="UR4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="US4" t="s">
         <v>7</v>
@@ -20998,7 +20999,7 @@
         <v>4</v>
       </c>
       <c r="AAM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAN4" t="s">
         <v>5</v>
@@ -21019,10 +21020,10 @@
         <v>7</v>
       </c>
       <c r="AAT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAV4" t="s">
         <v>5</v>
@@ -21067,7 +21068,7 @@
         <v>7</v>
       </c>
       <c r="ABJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABK4" t="s">
         <v>7</v>
@@ -21109,7 +21110,7 @@
         <v>4</v>
       </c>
       <c r="ABX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABY4" t="s">
         <v>4</v>
@@ -21259,7 +21260,7 @@
         <v>5</v>
       </c>
       <c r="ADV4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ADW4" t="s">
         <v>7</v>
@@ -21280,7 +21281,7 @@
         <v>7</v>
       </c>
       <c r="AEC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AED4" t="s">
         <v>7</v>
@@ -21343,7 +21344,7 @@
         <v>7</v>
       </c>
       <c r="AEX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AEY4" t="s">
         <v>4</v>
@@ -21355,10 +21356,10 @@
         <v>5</v>
       </c>
       <c r="AFB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AFD4" t="s">
         <v>7</v>
@@ -21466,7 +21467,7 @@
         <v>5</v>
       </c>
       <c r="AGM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGN4" t="s">
         <v>7</v>
@@ -21478,7 +21479,7 @@
         <v>7</v>
       </c>
       <c r="AGQ4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGR4" t="s">
         <v>7</v>
@@ -21541,7 +21542,7 @@
         <v>7</v>
       </c>
       <c r="AHL4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AHM4" t="s">
         <v>7</v>
@@ -21691,7 +21692,7 @@
         <v>7</v>
       </c>
       <c r="AJJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AJK4" t="s">
         <v>6</v>
@@ -21748,7 +21749,7 @@
         <v>7</v>
       </c>
       <c r="AKC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKD4" t="s">
         <v>6</v>
@@ -21802,7 +21803,7 @@
         <v>7</v>
       </c>
       <c r="AKU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKV4" t="s">
         <v>7</v>
@@ -21832,7 +21833,7 @@
         <v>5</v>
       </c>
       <c r="ALE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ALF4" t="s">
         <v>5</v>
@@ -22275,7 +22276,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22317,7 +22318,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -23538,7 +23539,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -24516,7 +24517,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -24627,7 +24628,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -24639,7 +24640,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
@@ -25208,7 +25209,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AT6" t="s">
         <v>7</v>
@@ -25220,13 +25221,13 @@
         <v>98</v>
       </c>
       <c r="CR6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CW6" t="s">
         <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="DG6" t="s">
         <v>8</v>
@@ -25373,7 +25374,7 @@
         <v>7</v>
       </c>
       <c r="GK6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="GP6" t="s">
         <v>7</v>
@@ -25649,10 +25650,10 @@
         <v>7</v>
       </c>
       <c r="NS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NU6" t="s">
         <v>7</v>
@@ -25703,7 +25704,7 @@
         <v>7</v>
       </c>
       <c r="OX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="PD6" t="s">
         <v>7</v>
@@ -25769,7 +25770,7 @@
         <v>7</v>
       </c>
       <c r="RC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RD6" t="s">
         <v>7</v>
@@ -25808,7 +25809,7 @@
         <v>7</v>
       </c>
       <c r="SE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SF6" t="s">
         <v>7</v>
@@ -25826,7 +25827,7 @@
         <v>7</v>
       </c>
       <c r="SP6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="TF6" t="s">
         <v>7</v>
@@ -26114,10 +26115,10 @@
         <v>7</v>
       </c>
       <c r="AAT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAV6" t="s">
         <v>7</v>
@@ -26150,7 +26151,7 @@
         <v>7</v>
       </c>
       <c r="ABJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABN6" t="s">
         <v>7</v>
@@ -26162,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="ABX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABY6" t="s">
         <v>5</v>
@@ -26213,7 +26214,7 @@
         <v>7</v>
       </c>
       <c r="ADV6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ADY6" t="s">
         <v>5</v>
@@ -26225,13 +26226,13 @@
         <v>5</v>
       </c>
       <c r="AEC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEG6" t="s">
         <v>7</v>
       </c>
       <c r="AEX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEY6" t="s">
         <v>5</v>
@@ -26246,7 +26247,7 @@
         <v>98</v>
       </c>
       <c r="AFC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFP6" t="s">
         <v>5</v>
@@ -26297,7 +26298,7 @@
         <v>7</v>
       </c>
       <c r="AHL6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AHX6" t="s">
         <v>7</v>
@@ -26330,7 +26331,7 @@
         <v>7</v>
       </c>
       <c r="AJJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AJK6" t="s">
         <v>8</v>
@@ -26342,7 +26343,7 @@
         <v>7</v>
       </c>
       <c r="AKC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKD6" t="s">
         <v>8</v>
@@ -26357,7 +26358,7 @@
         <v>7</v>
       </c>
       <c r="AKU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKW6" t="s">
         <v>8</v>
@@ -26369,7 +26370,7 @@
         <v>7</v>
       </c>
       <c r="ALE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ALF6" t="s">
         <v>7</v>
@@ -27767,7 +27768,7 @@
         <v>7</v>
       </c>
       <c r="CH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI9" t="s">
         <v>7</v>
@@ -27782,13 +27783,13 @@
         <v>7</v>
       </c>
       <c r="EH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK9" t="s">
         <v>7</v>
       </c>
       <c r="HD9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JP9" t="s">
         <v>8</v>
@@ -27797,16 +27798,16 @@
         <v>8</v>
       </c>
       <c r="JW9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JX9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="MO9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NB9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NL9" t="s">
         <v>8</v>
@@ -27824,7 +27825,7 @@
         <v>7</v>
       </c>
       <c r="RH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE9" t="s">
         <v>7</v>
@@ -27836,13 +27837,13 @@
         <v>7</v>
       </c>
       <c r="UR9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAL9" t="s">
         <v>8</v>
       </c>
       <c r="AAM9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT9" t="s">
         <v>7</v>
@@ -27922,7 +27923,7 @@
         <v>8</v>
       </c>
       <c r="CH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI10" t="s">
         <v>8</v>
@@ -27937,25 +27938,25 @@
         <v>8</v>
       </c>
       <c r="EH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK10" t="s">
         <v>8</v>
       </c>
       <c r="HD10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JW10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JX10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="MO10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NB10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS10" t="s">
         <v>8</v>
@@ -27970,7 +27971,7 @@
         <v>8</v>
       </c>
       <c r="RH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE10" t="s">
         <v>8</v>
@@ -27982,10 +27983,10 @@
         <v>8</v>
       </c>
       <c r="UR10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAM10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT10" t="s">
         <v>8</v>
@@ -28038,180 +28039,180 @@
     </row>
     <row r="11" spans="1:1053">
       <c r="AS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CR11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CW11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="OX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="RC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SN11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SP11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ADV11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFB11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGM11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGQ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AHL11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AJJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ALE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:1053">
       <c r="AS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CR12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CW12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="OX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="RC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SN12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SP12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ADV12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFB12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGM12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGQ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AHL12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AJJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ALE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST618_DeviceParametersOnConfigureTrendingScreen.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST618_DeviceParametersOnConfigureTrendingScreen.xlsx
@@ -3791,10 +3791,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to check the functionality for displaying device parameters names,description,units on the 'Configure Trending Screen'.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3823,22 +3819,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Input voltage"</t>
+    <t>Running Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Output voltage"</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Output current"</t>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
+    <t>"System Output Apparent Power"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Output Power"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Output Capacity"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4366,21 +4368,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4530,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4549,13 +4551,13 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41129</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4596,11 +4598,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>840</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4618,10 +4618,10 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>798</v>
@@ -4637,11 +4637,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4661,8 +4659,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4688,10 +4690,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4751,7 +4751,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4780,14 +4780,14 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4836,7 +4836,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4868,10 +4868,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>782</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4901,7 +4901,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4928,17 +4928,15 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>784</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
@@ -4954,14 +4952,16 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>784</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
@@ -4977,14 +4977,14 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>19</v>
@@ -5005,11 +5005,15 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>19</v>
@@ -5034,7 +5038,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>19</v>
@@ -5059,7 +5063,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>706</v>
@@ -5084,7 +5088,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>706</v>
@@ -5109,7 +5113,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>706</v>
@@ -5134,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>706</v>
@@ -5159,7 +5163,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>706</v>
@@ -5184,7 +5188,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>706</v>
@@ -5196,7 +5200,7 @@
         <v>835</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5211,7 +5215,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>706</v>
@@ -5223,7 +5227,7 @@
         <v>835</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5238,7 +5242,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>706</v>
@@ -5250,7 +5254,7 @@
         <v>835</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -5265,7 +5269,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>706</v>
